--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ontology Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Group</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBODY</t>
@@ -166,6 +169,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,17 +275,17 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -315,29 +319,32 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -351,46 +358,46 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>9</v>
@@ -404,42 +411,42 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -447,42 +454,42 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -490,44 +497,44 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -538,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,29 +579,32 @@
       <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -608,46 +618,46 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>9</v>
@@ -661,42 +671,42 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -704,42 +714,42 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -747,44 +757,44 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
